--- a/Data/game_data.xlsx
+++ b/Data/game_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tpgroupglobal-my.sharepoint.com/personal/dominic_mccaskill_tpgroup_uk_com/Documents/Desktop/LMS/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmccaskill\source\repos\LastManStanding\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="8_{351A1A25-47B7-4969-86E9-420553350040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D892E19-EAAC-49A7-B7AE-3E098ABCF239}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A189EE11-F2AB-490D-AFB8-DAFE48F19DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26444,11 +26444,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="J263" sqref="J263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26532,7 +26533,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26618,7 +26619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -26704,7 +26705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -26790,7 +26791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -26876,7 +26877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -26962,7 +26963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -27048,7 +27049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -27134,7 +27135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -27220,7 +27221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -27306,7 +27307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -27392,7 +27393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -27478,7 +27479,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -27564,7 +27565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -27650,7 +27651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -27736,7 +27737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -27822,7 +27823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -27908,7 +27909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -27994,7 +27995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -28080,7 +28081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -28166,7 +28167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -28252,7 +28253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -28338,7 +28339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -28424,7 +28425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -28510,7 +28511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -28596,7 +28597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -28682,7 +28683,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -28768,7 +28769,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -28854,7 +28855,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -28940,7 +28941,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -29026,7 +29027,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -29112,7 +29113,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -29198,7 +29199,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -29284,7 +29285,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -29370,7 +29371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -29456,7 +29457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -29542,7 +29543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -29628,7 +29629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -29714,7 +29715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -29800,7 +29801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -29886,7 +29887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -29972,7 +29973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -30058,7 +30059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -30144,7 +30145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -30230,7 +30231,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
@@ -30316,7 +30317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -30402,7 +30403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -30488,7 +30489,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -30574,7 +30575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3</v>
       </c>
@@ -30660,7 +30661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -30746,7 +30747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -30832,7 +30833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -30918,7 +30919,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
@@ -31004,7 +31005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -31090,7 +31091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -31176,7 +31177,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -31262,7 +31263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -31348,7 +31349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
@@ -31434,7 +31435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -31520,7 +31521,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -31606,7 +31607,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -31692,7 +31693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -31778,7 +31779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
@@ -31864,7 +31865,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -31950,7 +31951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3</v>
       </c>
@@ -32036,7 +32037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
@@ -32122,7 +32123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
@@ -32208,7 +32209,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -32294,7 +32295,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3</v>
       </c>
@@ -32380,7 +32381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3</v>
       </c>
@@ -32466,7 +32467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3</v>
       </c>
@@ -32552,7 +32553,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
@@ -32638,7 +32639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3</v>
       </c>
@@ -32724,7 +32725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
@@ -32810,7 +32811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3</v>
       </c>
@@ -32896,7 +32897,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
@@ -32982,7 +32983,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>3</v>
       </c>
@@ -33068,7 +33069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3</v>
       </c>
@@ -33154,7 +33155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>3</v>
       </c>
@@ -33240,7 +33241,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>3</v>
       </c>
@@ -33326,7 +33327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>3</v>
       </c>
@@ -33412,7 +33413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3</v>
       </c>
@@ -33498,7 +33499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>3</v>
       </c>
@@ -33584,7 +33585,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>3</v>
       </c>
@@ -33670,7 +33671,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>3</v>
       </c>
@@ -33756,7 +33757,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>3</v>
       </c>
@@ -33842,7 +33843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>3</v>
       </c>
@@ -33928,7 +33929,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>3</v>
       </c>
@@ -34014,7 +34015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>3</v>
       </c>
@@ -34100,7 +34101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>3</v>
       </c>
@@ -34186,7 +34187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>3</v>
       </c>
@@ -34272,7 +34273,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>3</v>
       </c>
@@ -34358,7 +34359,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>3</v>
       </c>
@@ -34444,7 +34445,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>3</v>
       </c>
@@ -34530,7 +34531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>3</v>
       </c>
@@ -34616,7 +34617,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>3</v>
       </c>
@@ -34702,7 +34703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>3</v>
       </c>
@@ -34788,7 +34789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4</v>
       </c>
@@ -34874,7 +34875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4</v>
       </c>
@@ -34960,7 +34961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4</v>
       </c>
@@ -35046,7 +35047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4</v>
       </c>
@@ -35132,7 +35133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>4</v>
       </c>
@@ -35218,7 +35219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>4</v>
       </c>
@@ -35250,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <f t="shared" si="1"/>
+        <f>IF(H103&gt;=1,1,0)</f>
         <v>1</v>
       </c>
       <c r="K103" t="s">
@@ -35304,7 +35305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>4</v>
       </c>
@@ -35390,7 +35391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>4</v>
       </c>
@@ -35476,7 +35477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>4</v>
       </c>
@@ -35562,7 +35563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>4</v>
       </c>
@@ -35648,7 +35649,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>4</v>
       </c>
@@ -35734,7 +35735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>4</v>
       </c>
@@ -35820,7 +35821,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>4</v>
       </c>
@@ -35906,7 +35907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>4</v>
       </c>
@@ -35992,7 +35993,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>4</v>
       </c>
@@ -36078,7 +36079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>4</v>
       </c>
@@ -36164,7 +36165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
@@ -36250,7 +36251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5</v>
       </c>
@@ -36336,7 +36337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5</v>
       </c>
@@ -36422,7 +36423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5</v>
       </c>
@@ -36508,7 +36509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5</v>
       </c>
@@ -36594,7 +36595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5</v>
       </c>
@@ -36680,7 +36681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5</v>
       </c>
@@ -36766,7 +36767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5</v>
       </c>
@@ -36852,7 +36853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5</v>
       </c>
@@ -36938,7 +36939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5</v>
       </c>
@@ -37024,7 +37025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>5</v>
       </c>
@@ -37110,7 +37111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5</v>
       </c>
@@ -37196,7 +37197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5</v>
       </c>
@@ -37282,7 +37283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>5</v>
       </c>
@@ -37368,7 +37369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>5</v>
       </c>
@@ -37454,7 +37455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>5</v>
       </c>
@@ -37540,7 +37541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>5</v>
       </c>
@@ -37626,7 +37627,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>5</v>
       </c>
@@ -37712,7 +37713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>5</v>
       </c>
@@ -37798,7 +37799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>5</v>
       </c>
@@ -37884,7 +37885,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>5</v>
       </c>
@@ -37970,7 +37971,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>5</v>
       </c>
@@ -38056,7 +38057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>5</v>
       </c>
@@ -38142,7 +38143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>5</v>
       </c>
@@ -38228,7 +38229,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>5</v>
       </c>
@@ -38314,7 +38315,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>5</v>
       </c>
@@ -38400,7 +38401,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>5</v>
       </c>
@@ -38486,7 +38487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>5</v>
       </c>
@@ -38572,7 +38573,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>5</v>
       </c>
@@ -38658,7 +38659,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>5</v>
       </c>
@@ -38744,7 +38745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>5</v>
       </c>
@@ -38830,7 +38831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>5</v>
       </c>
@@ -38916,7 +38917,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>5</v>
       </c>
@@ -39002,7 +39003,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>5</v>
       </c>
@@ -39088,7 +39089,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>5</v>
       </c>
@@ -39174,7 +39175,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>5</v>
       </c>
@@ -39260,7 +39261,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>5</v>
       </c>
@@ -39346,7 +39347,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>5</v>
       </c>
@@ -39432,7 +39433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>5</v>
       </c>
@@ -39518,7 +39519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>5</v>
       </c>
@@ -39604,7 +39605,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>6</v>
       </c>
@@ -39690,7 +39691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>6</v>
       </c>
@@ -39776,7 +39777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>6</v>
       </c>
@@ -39862,7 +39863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>6</v>
       </c>
@@ -39948,7 +39949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>6</v>
       </c>
@@ -40034,7 +40035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>6</v>
       </c>
@@ -40120,7 +40121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>6</v>
       </c>
@@ -40206,7 +40207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>6</v>
       </c>
@@ -40292,7 +40293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>6</v>
       </c>
@@ -40378,7 +40379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>6</v>
       </c>
@@ -40464,7 +40465,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>6</v>
       </c>
@@ -40550,7 +40551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>6</v>
       </c>
@@ -40636,7 +40637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>6</v>
       </c>
@@ -40722,7 +40723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>6</v>
       </c>
@@ -40808,7 +40809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>6</v>
       </c>
@@ -40894,7 +40895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>6</v>
       </c>
@@ -40980,7 +40981,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>6</v>
       </c>
@@ -41066,7 +41067,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>6</v>
       </c>
@@ -41152,7 +41153,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>6</v>
       </c>
@@ -41238,7 +41239,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>6</v>
       </c>
@@ -41324,7 +41325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>6</v>
       </c>
@@ -41410,7 +41411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>6</v>
       </c>
@@ -41496,7 +41497,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>6</v>
       </c>
@@ -41582,7 +41583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>6</v>
       </c>
@@ -41668,7 +41669,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>7</v>
       </c>
@@ -41754,7 +41755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>7</v>
       </c>
@@ -41840,7 +41841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>7</v>
       </c>
@@ -41926,7 +41927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>7</v>
       </c>
@@ -42012,7 +42013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>7</v>
       </c>
@@ -42098,7 +42099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>7</v>
       </c>
@@ -42184,7 +42185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>7</v>
       </c>
@@ -42270,7 +42271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>7</v>
       </c>
@@ -42356,7 +42357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>7</v>
       </c>
@@ -42442,7 +42443,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>7</v>
       </c>
@@ -42528,7 +42529,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>7</v>
       </c>
@@ -42614,7 +42615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>7</v>
       </c>
@@ -42700,7 +42701,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>7</v>
       </c>
@@ -42786,7 +42787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>7</v>
       </c>
@@ -42872,7 +42873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>7</v>
       </c>
@@ -42958,7 +42959,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>7</v>
       </c>
@@ -43044,7 +43045,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>7</v>
       </c>
@@ -43130,7 +43131,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>7</v>
       </c>
@@ -43216,7 +43217,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>7</v>
       </c>
@@ -43302,7 +43303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>7</v>
       </c>
@@ -43388,7 +43389,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>7</v>
       </c>
@@ -43474,7 +43475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>7</v>
       </c>
@@ -43560,7 +43561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>7</v>
       </c>
@@ -43646,7 +43647,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>7</v>
       </c>
@@ -43732,7 +43733,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>7</v>
       </c>
@@ -43818,7 +43819,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>7</v>
       </c>
@@ -43904,7 +43905,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>7</v>
       </c>
@@ -43990,7 +43991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>7</v>
       </c>
@@ -44076,7 +44077,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>7</v>
       </c>
@@ -44162,7 +44163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>7</v>
       </c>
@@ -44248,7 +44249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>7</v>
       </c>
@@ -44334,7 +44335,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>7</v>
       </c>
@@ -44420,7 +44421,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>7</v>
       </c>
@@ -44506,7 +44507,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>7</v>
       </c>
@@ -44592,7 +44593,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>7</v>
       </c>
@@ -44678,7 +44679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>7</v>
       </c>
@@ -44764,7 +44765,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>7</v>
       </c>
@@ -44850,7 +44851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>7</v>
       </c>
@@ -44936,7 +44937,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>7</v>
       </c>
@@ -45022,7 +45023,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>7</v>
       </c>
@@ -45108,7 +45109,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>7</v>
       </c>
@@ -45194,7 +45195,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>7</v>
       </c>
@@ -45280,7 +45281,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>7</v>
       </c>
@@ -45366,7 +45367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>7</v>
       </c>
@@ -45452,7 +45453,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>7</v>
       </c>
@@ -45538,7 +45539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>7</v>
       </c>
@@ -45624,7 +45625,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>7</v>
       </c>
@@ -45710,7 +45711,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>7</v>
       </c>
@@ -45796,7 +45797,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>7</v>
       </c>
@@ -45882,7 +45883,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>7</v>
       </c>
@@ -45968,7 +45969,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>7</v>
       </c>
@@ -46054,7 +46055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>7</v>
       </c>
@@ -46140,7 +46141,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>7</v>
       </c>
@@ -46226,7 +46227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>7</v>
       </c>
@@ -46312,7 +46313,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>7</v>
       </c>
@@ -46398,7 +46399,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>7</v>
       </c>
@@ -46484,7 +46485,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>8</v>
       </c>
@@ -46570,7 +46571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>8</v>
       </c>
@@ -46656,7 +46657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>8</v>
       </c>
@@ -46742,7 +46743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>8</v>
       </c>
@@ -46828,7 +46829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>8</v>
       </c>
@@ -47000,7 +47001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>8</v>
       </c>
@@ -47086,7 +47087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>8</v>
       </c>
@@ -47172,7 +47173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>8</v>
       </c>
@@ -47258,7 +47259,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>8</v>
       </c>
@@ -47344,7 +47345,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>8</v>
       </c>
@@ -47430,7 +47431,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>8</v>
       </c>
@@ -47516,7 +47517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>8</v>
       </c>
@@ -47688,7 +47689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>8</v>
       </c>
@@ -47774,7 +47775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>8</v>
       </c>
@@ -47860,7 +47861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>8</v>
       </c>
@@ -47946,7 +47947,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>8</v>
       </c>
@@ -48032,7 +48033,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>8</v>
       </c>
@@ -48118,7 +48119,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>8</v>
       </c>
@@ -48204,7 +48205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>8</v>
       </c>
@@ -48376,7 +48377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>8</v>
       </c>
@@ -48462,7 +48463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>8</v>
       </c>
@@ -48548,7 +48549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>8</v>
       </c>
@@ -48634,7 +48635,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>8</v>
       </c>
@@ -48720,7 +48721,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>8</v>
       </c>
@@ -48806,7 +48807,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>8</v>
       </c>
@@ -48892,7 +48893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>8</v>
       </c>
@@ -49064,7 +49065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>8</v>
       </c>
@@ -49150,7 +49151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>8</v>
       </c>
@@ -49236,7 +49237,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>8</v>
       </c>
@@ -49322,7 +49323,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>8</v>
       </c>
@@ -49408,7 +49409,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>8</v>
       </c>
@@ -49494,7 +49495,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>8</v>
       </c>
@@ -49580,7 +49581,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>8</v>
       </c>
@@ -49752,7 +49753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>8</v>
       </c>
@@ -49838,7 +49839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>8</v>
       </c>
@@ -49924,7 +49925,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>8</v>
       </c>
@@ -50010,7 +50011,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>8</v>
       </c>
@@ -50096,7 +50097,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>8</v>
       </c>
@@ -50182,7 +50183,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>8</v>
       </c>
@@ -50268,7 +50269,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>8</v>
       </c>
@@ -50440,7 +50441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>8</v>
       </c>
@@ -50526,7 +50527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>8</v>
       </c>
@@ -50612,7 +50613,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>8</v>
       </c>
@@ -50698,7 +50699,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>8</v>
       </c>
@@ -50784,7 +50785,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>8</v>
       </c>
@@ -50870,7 +50871,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>8</v>
       </c>
@@ -50956,7 +50957,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>8</v>
       </c>
@@ -51128,7 +51129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>8</v>
       </c>
@@ -51214,7 +51215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>8</v>
       </c>
@@ -51300,7 +51301,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>9</v>
       </c>
@@ -51386,7 +51387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>9</v>
       </c>
@@ -51472,7 +51473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>9</v>
       </c>
@@ -51558,7 +51559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>9</v>
       </c>
@@ -51644,7 +51645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>9</v>
       </c>
@@ -51816,7 +51817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>9</v>
       </c>
@@ -51902,7 +51903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>9</v>
       </c>
@@ -51988,7 +51989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>9</v>
       </c>
@@ -52074,7 +52075,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>9</v>
       </c>
@@ -52160,7 +52161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>9</v>
       </c>
@@ -52246,7 +52247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>9</v>
       </c>
@@ -52332,7 +52333,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>9</v>
       </c>
@@ -52418,7 +52419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>9</v>
       </c>
@@ -52504,7 +52505,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>9</v>
       </c>
@@ -52590,7 +52591,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>9</v>
       </c>
@@ -52676,7 +52677,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>9</v>
       </c>
@@ -52762,7 +52763,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>9</v>
       </c>
@@ -52848,7 +52849,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>9</v>
       </c>
@@ -52934,7 +52935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>9</v>
       </c>
@@ -53020,7 +53021,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>9</v>
       </c>
@@ -53106,7 +53107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>9</v>
       </c>
@@ -53192,7 +53193,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>9</v>
       </c>
@@ -53278,7 +53279,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>9</v>
       </c>
@@ -53364,7 +53365,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>10</v>
       </c>
@@ -53450,7 +53451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>10</v>
       </c>
@@ -53536,7 +53537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>10</v>
       </c>
@@ -53622,7 +53623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>10</v>
       </c>
@@ -53708,7 +53709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>10</v>
       </c>
@@ -53880,7 +53881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>10</v>
       </c>
@@ -53966,7 +53967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>10</v>
       </c>
@@ -54052,7 +54053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>10</v>
       </c>
@@ -54138,7 +54139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>10</v>
       </c>
@@ -54224,7 +54225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>10</v>
       </c>
@@ -54310,7 +54311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>10</v>
       </c>
@@ -54396,7 +54397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>10</v>
       </c>
@@ -54568,7 +54569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>10</v>
       </c>
@@ -54654,7 +54655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>10</v>
       </c>
@@ -54740,7 +54741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>10</v>
       </c>
@@ -54826,7 +54827,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>10</v>
       </c>
@@ -54912,7 +54913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>10</v>
       </c>
@@ -54998,7 +54999,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>10</v>
       </c>
@@ -55084,7 +55085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>10</v>
       </c>
@@ -55256,7 +55257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>10</v>
       </c>
@@ -55342,7 +55343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>10</v>
       </c>
@@ -55428,7 +55429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>10</v>
       </c>
@@ -55514,7 +55515,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>10</v>
       </c>
@@ -55600,7 +55601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>10</v>
       </c>
@@ -55686,7 +55687,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>10</v>
       </c>
@@ -55772,7 +55773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>10</v>
       </c>
@@ -55944,7 +55945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>10</v>
       </c>
@@ -56030,7 +56031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>10</v>
       </c>
@@ -56116,7 +56117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>10</v>
       </c>
@@ -56202,7 +56203,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>10</v>
       </c>
@@ -56288,7 +56289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>10</v>
       </c>
@@ -56374,7 +56375,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>10</v>
       </c>
@@ -56460,7 +56461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>10</v>
       </c>
@@ -56632,7 +56633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>10</v>
       </c>
@@ -56718,7 +56719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>10</v>
       </c>
@@ -56804,7 +56805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>10</v>
       </c>
@@ -56890,7 +56891,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>10</v>
       </c>
@@ -56976,7 +56977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>10</v>
       </c>
@@ -57062,7 +57063,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>10</v>
       </c>
@@ -57148,7 +57149,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>10</v>
       </c>
@@ -57320,7 +57321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>10</v>
       </c>
@@ -57406,7 +57407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>10</v>
       </c>
@@ -57492,7 +57493,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>10</v>
       </c>
@@ -57578,7 +57579,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>10</v>
       </c>
@@ -57664,7 +57665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>10</v>
       </c>
@@ -57750,7 +57751,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>10</v>
       </c>
@@ -57836,7 +57837,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>10</v>
       </c>
@@ -58008,7 +58009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>10</v>
       </c>
@@ -58094,7 +58095,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>10</v>
       </c>
@@ -58180,7 +58181,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>10</v>
       </c>
@@ -58266,7 +58267,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>10</v>
       </c>
@@ -58352,7 +58353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>10</v>
       </c>
@@ -58438,7 +58439,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>10</v>
       </c>
@@ -58524,7 +58525,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>10</v>
       </c>
@@ -58696,7 +58697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>10</v>
       </c>
@@ -58782,7 +58783,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>10</v>
       </c>
@@ -58868,7 +58869,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>10</v>
       </c>
@@ -58954,7 +58955,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>10</v>
       </c>
@@ -59040,7 +59041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>10</v>
       </c>
@@ -59126,7 +59127,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>10</v>
       </c>
@@ -59212,7 +59213,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>10</v>
       </c>
@@ -59384,7 +59385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>10</v>
       </c>
@@ -59470,7 +59471,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>10</v>
       </c>
@@ -59556,7 +59557,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>11</v>
       </c>
@@ -59642,7 +59643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>11</v>
       </c>
@@ -59728,7 +59729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>11</v>
       </c>
@@ -59814,7 +59815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>11</v>
       </c>
@@ -59900,7 +59901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>11</v>
       </c>
@@ -60072,7 +60073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>11</v>
       </c>
@@ -60158,7 +60159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>11</v>
       </c>
@@ -60244,7 +60245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>11</v>
       </c>
@@ -60330,7 +60331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>11</v>
       </c>
@@ -60416,7 +60417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>11</v>
       </c>
@@ -60502,7 +60503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>11</v>
       </c>
@@ -60588,7 +60589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>11</v>
       </c>
@@ -60760,7 +60761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>11</v>
       </c>
@@ -60846,7 +60847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>11</v>
       </c>
@@ -60932,7 +60933,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>11</v>
       </c>
@@ -61018,7 +61019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>11</v>
       </c>
@@ -61104,7 +61105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>11</v>
       </c>
@@ -61190,7 +61191,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>11</v>
       </c>
@@ -61276,7 +61277,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>11</v>
       </c>
@@ -61448,7 +61449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>11</v>
       </c>
@@ -61534,7 +61535,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>11</v>
       </c>
@@ -61620,7 +61621,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>12</v>
       </c>
@@ -61706,7 +61707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>12</v>
       </c>
@@ -61792,7 +61793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>12</v>
       </c>
@@ -61878,7 +61879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>12</v>
       </c>
@@ -61964,7 +61965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>12</v>
       </c>
@@ -62136,7 +62137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>12</v>
       </c>
@@ -62222,7 +62223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>12</v>
       </c>
@@ -62308,7 +62309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>12</v>
       </c>
@@ -62394,7 +62395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>12</v>
       </c>
@@ -62480,7 +62481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>12</v>
       </c>
@@ -62566,7 +62567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>12</v>
       </c>
@@ -62652,7 +62653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>12</v>
       </c>
@@ -62824,7 +62825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>12</v>
       </c>
@@ -62910,7 +62911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>12</v>
       </c>
@@ -62996,7 +62997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>12</v>
       </c>
@@ -63082,7 +63083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>12</v>
       </c>
@@ -63168,7 +63169,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>12</v>
       </c>
@@ -63254,7 +63255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>12</v>
       </c>
@@ -63340,7 +63341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>12</v>
       </c>
@@ -63512,7 +63513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>12</v>
       </c>
@@ -63598,7 +63599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>12</v>
       </c>
@@ -63684,7 +63685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>12</v>
       </c>
@@ -63770,7 +63771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>12</v>
       </c>
@@ -63856,7 +63857,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>12</v>
       </c>
@@ -63942,7 +63943,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>12</v>
       </c>
@@ -64028,7 +64029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>12</v>
       </c>
@@ -64200,7 +64201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>12</v>
       </c>
@@ -64286,7 +64287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>12</v>
       </c>
@@ -64372,7 +64373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>13</v>
       </c>
@@ -64458,7 +64459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>13</v>
       </c>
@@ -64544,7 +64545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>13</v>
       </c>
@@ -64630,7 +64631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>13</v>
       </c>
@@ -64716,7 +64717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>13</v>
       </c>
@@ -64888,7 +64889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>13</v>
       </c>
@@ -64974,7 +64975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>13</v>
       </c>
@@ -65060,7 +65061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>13</v>
       </c>
@@ -65146,7 +65147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>13</v>
       </c>
@@ -65191,7 +65192,7 @@
         <v>0</v>
       </c>
       <c r="N451" t="str">
-        <f t="shared" ref="N451:N497" si="8">TEXT(C451, "YYYY/MM/DD") &amp; " - " &amp;E451</f>
+        <f>TEXT(C451, "YYYY/MM/DD") &amp; " - " &amp;E451</f>
         <v>2023/04/08 - -</v>
       </c>
       <c r="O451" t="str">
@@ -65232,7 +65233,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>13</v>
       </c>
@@ -65277,7 +65278,7 @@
         <v>0</v>
       </c>
       <c r="N452" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C452, "YYYY/MM/DD") &amp; " - " &amp;E452</f>
         <v>2023/04/08 - Aston Villa</v>
       </c>
       <c r="O452" t="str">
@@ -65318,7 +65319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>13</v>
       </c>
@@ -65363,7 +65364,7 @@
         <v>0</v>
       </c>
       <c r="N453" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C453, "YYYY/MM/DD") &amp; " - " &amp;E453</f>
         <v>2023/04/08 - Manchester United</v>
       </c>
       <c r="O453" t="str">
@@ -65404,7 +65405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>13</v>
       </c>
@@ -65449,7 +65450,7 @@
         <v>0</v>
       </c>
       <c r="N454" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C454, "YYYY/MM/DD") &amp; " - " &amp;E454</f>
         <v>2023/04/08 - Manchester City</v>
       </c>
       <c r="O454" t="str">
@@ -65535,7 +65536,7 @@
         <v>0</v>
       </c>
       <c r="N455" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C455, "YYYY/MM/DD") &amp; " - " &amp;E455</f>
         <v>2023/04/08 - Manchester City</v>
       </c>
       <c r="O455" t="str">
@@ -65576,7 +65577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>13</v>
       </c>
@@ -65621,7 +65622,7 @@
         <v>0</v>
       </c>
       <c r="N456" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C456, "YYYY/MM/DD") &amp; " - " &amp;E456</f>
         <v>2023/04/08 - Aston Villa</v>
       </c>
       <c r="O456" t="str">
@@ -65662,7 +65663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>13</v>
       </c>
@@ -65707,7 +65708,7 @@
         <v>0</v>
       </c>
       <c r="N457" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C457, "YYYY/MM/DD") &amp; " - " &amp;E457</f>
         <v>2023/04/08 - Manchester United</v>
       </c>
       <c r="O457" t="str">
@@ -65748,7 +65749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>13</v>
       </c>
@@ -65793,7 +65794,7 @@
         <v>0</v>
       </c>
       <c r="N458" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C458, "YYYY/MM/DD") &amp; " - " &amp;E458</f>
         <v>2023/04/15 - Sheffield United</v>
       </c>
       <c r="O458" t="str">
@@ -65834,7 +65835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>13</v>
       </c>
@@ -65879,7 +65880,7 @@
         <v>0</v>
       </c>
       <c r="N459" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C459, "YYYY/MM/DD") &amp; " - " &amp;E459</f>
         <v>2023/04/15 - -</v>
       </c>
       <c r="O459" t="str">
@@ -65920,7 +65921,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>13</v>
       </c>
@@ -65965,7 +65966,7 @@
         <v>0</v>
       </c>
       <c r="N460" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C460, "YYYY/MM/DD") &amp; " - " &amp;E460</f>
         <v>2023/04/15 - Manchester City</v>
       </c>
       <c r="O460" t="str">
@@ -66006,7 +66007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>13</v>
       </c>
@@ -66051,7 +66052,7 @@
         <v>0</v>
       </c>
       <c r="N461" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C461, "YYYY/MM/DD") &amp; " - " &amp;E461</f>
         <v>2023/04/15 - Sheffield United</v>
       </c>
       <c r="O461" t="str">
@@ -66092,7 +66093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>13</v>
       </c>
@@ -66137,7 +66138,7 @@
         <v>0</v>
       </c>
       <c r="N462" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C462, "YYYY/MM/DD") &amp; " - " &amp;E462</f>
         <v>2023/04/15 - Sheffield United</v>
       </c>
       <c r="O462" t="str">
@@ -66223,7 +66224,7 @@
         <v>0</v>
       </c>
       <c r="N463" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C463, "YYYY/MM/DD") &amp; " - " &amp;E463</f>
         <v>2023/04/15 - Sheffield United</v>
       </c>
       <c r="O463" t="str">
@@ -66264,7 +66265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>13</v>
       </c>
@@ -66309,7 +66310,7 @@
         <v>0</v>
       </c>
       <c r="N464" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C464, "YYYY/MM/DD") &amp; " - " &amp;E464</f>
         <v>2023/04/15 - Manchester City</v>
       </c>
       <c r="O464" t="str">
@@ -66350,7 +66351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>13</v>
       </c>
@@ -66395,7 +66396,7 @@
         <v>0</v>
       </c>
       <c r="N465" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C465, "YYYY/MM/DD") &amp; " - " &amp;E465</f>
         <v>2023/04/15 - Manchester City</v>
       </c>
       <c r="O465" t="str">
@@ -66436,7 +66437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>13</v>
       </c>
@@ -66481,7 +66482,7 @@
         <v>0</v>
       </c>
       <c r="N466" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C466, "YYYY/MM/DD") &amp; " - " &amp;E466</f>
         <v>2023/04/22 - Liverpool</v>
       </c>
       <c r="O466" t="str">
@@ -66522,7 +66523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>13</v>
       </c>
@@ -66567,7 +66568,7 @@
         <v>0</v>
       </c>
       <c r="N467" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C467, "YYYY/MM/DD") &amp; " - " &amp;E467</f>
         <v>2023/04/22 - -</v>
       </c>
       <c r="O467" t="str">
@@ -66608,7 +66609,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>13</v>
       </c>
@@ -66653,7 +66654,7 @@
         <v>0</v>
       </c>
       <c r="N468" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C468, "YYYY/MM/DD") &amp; " - " &amp;E468</f>
         <v>2023/04/22 - Liverpool</v>
       </c>
       <c r="O468" t="str">
@@ -66694,7 +66695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>13</v>
       </c>
@@ -66739,7 +66740,7 @@
         <v>0</v>
       </c>
       <c r="N469" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C469, "YYYY/MM/DD") &amp; " - " &amp;E469</f>
         <v>2023/04/22 - Burnley</v>
       </c>
       <c r="O469" t="str">
@@ -66780,7 +66781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>13</v>
       </c>
@@ -66825,7 +66826,7 @@
         <v>0</v>
       </c>
       <c r="N470" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C470, "YYYY/MM/DD") &amp; " - " &amp;E470</f>
         <v>2023/04/22 - Burnley</v>
       </c>
       <c r="O470" t="str">
@@ -66911,7 +66912,7 @@
         <v>0</v>
       </c>
       <c r="N471" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C471, "YYYY/MM/DD") &amp; " - " &amp;E471</f>
         <v>2023/04/22 - Burnley</v>
       </c>
       <c r="O471" t="str">
@@ -66952,7 +66953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>13</v>
       </c>
@@ -66997,7 +66998,7 @@
         <v>0</v>
       </c>
       <c r="N472" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C472, "YYYY/MM/DD") &amp; " - " &amp;E472</f>
         <v>2023/04/22 - Burnley</v>
       </c>
       <c r="O472" t="str">
@@ -67038,7 +67039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>13</v>
       </c>
@@ -67083,7 +67084,7 @@
         <v>0</v>
       </c>
       <c r="N473" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C473, "YYYY/MM/DD") &amp; " - " &amp;E473</f>
         <v>2023/04/22 - Burnley</v>
       </c>
       <c r="O473" t="str">
@@ -67124,7 +67125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>13</v>
       </c>
@@ -67169,7 +67170,7 @@
         <v>0</v>
       </c>
       <c r="N474" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C474, "YYYY/MM/DD") &amp; " - " &amp;E474</f>
         <v>2023/04/29 - Coventry City</v>
       </c>
       <c r="O474" t="str">
@@ -67210,7 +67211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>13</v>
       </c>
@@ -67255,7 +67256,7 @@
         <v>0</v>
       </c>
       <c r="N475" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C475, "YYYY/MM/DD") &amp; " - " &amp;E475</f>
         <v>2023/04/29 - -</v>
       </c>
       <c r="O475" t="str">
@@ -67296,7 +67297,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>13</v>
       </c>
@@ -67341,7 +67342,7 @@
         <v>0</v>
       </c>
       <c r="N476" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C476, "YYYY/MM/DD") &amp; " - " &amp;E476</f>
         <v>2023/04/29 - Brighton and Hove Albion</v>
       </c>
       <c r="O476" t="str">
@@ -67382,7 +67383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>13</v>
       </c>
@@ -67427,7 +67428,7 @@
         <v>0</v>
       </c>
       <c r="N477" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C477, "YYYY/MM/DD") &amp; " - " &amp;E477</f>
         <v>2023/04/29 - -</v>
       </c>
       <c r="O477" t="str">
@@ -67468,7 +67469,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>13</v>
       </c>
@@ -67513,7 +67514,7 @@
         <v>0</v>
       </c>
       <c r="N478" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C478, "YYYY/MM/DD") &amp; " - " &amp;E478</f>
         <v>2023/04/29 - -</v>
       </c>
       <c r="O478" t="str">
@@ -67554,7 +67555,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>13</v>
       </c>
@@ -67599,7 +67600,7 @@
         <v>0</v>
       </c>
       <c r="N479" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C479, "YYYY/MM/DD") &amp; " - " &amp;E479</f>
         <v>2023/04/29 - -</v>
       </c>
       <c r="O479" t="str">
@@ -67640,7 +67641,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>13</v>
       </c>
@@ -67685,7 +67686,7 @@
         <v>0</v>
       </c>
       <c r="N480" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C480, "YYYY/MM/DD") &amp; " - " &amp;E480</f>
         <v>2023/04/29 - -</v>
       </c>
       <c r="O480" t="str">
@@ -67726,7 +67727,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="481" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>13</v>
       </c>
@@ -67771,7 +67772,7 @@
         <v>0</v>
       </c>
       <c r="N481" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C481, "YYYY/MM/DD") &amp; " - " &amp;E481</f>
         <v>2023/04/29 - -</v>
       </c>
       <c r="O481" t="str">
@@ -67812,7 +67813,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="482" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>13</v>
       </c>
@@ -67857,7 +67858,7 @@
         <v>0</v>
       </c>
       <c r="N482" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C482, "YYYY/MM/DD") &amp; " - " &amp;E482</f>
         <v>2023/05/06 - Manchester City</v>
       </c>
       <c r="O482" t="str">
@@ -67898,7 +67899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>13</v>
       </c>
@@ -67943,7 +67944,7 @@
         <v>0</v>
       </c>
       <c r="N483" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C483, "YYYY/MM/DD") &amp; " - " &amp;E483</f>
         <v>2023/05/06 - -</v>
       </c>
       <c r="O483" t="str">
@@ -67984,7 +67985,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="484" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>13</v>
       </c>
@@ -68029,7 +68030,7 @@
         <v>0</v>
       </c>
       <c r="N484" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C484, "YYYY/MM/DD") &amp; " - " &amp;E484</f>
         <v>2023/05/06 - Tottenham Hotspur</v>
       </c>
       <c r="O484" t="str">
@@ -68070,7 +68071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>13</v>
       </c>
@@ -68115,7 +68116,7 @@
         <v>0</v>
       </c>
       <c r="N485" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C485, "YYYY/MM/DD") &amp; " - " &amp;E485</f>
         <v>2023/05/06 - -</v>
       </c>
       <c r="O485" t="str">
@@ -68156,7 +68157,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="486" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>13</v>
       </c>
@@ -68201,7 +68202,7 @@
         <v>0</v>
       </c>
       <c r="N486" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C486, "YYYY/MM/DD") &amp; " - " &amp;E486</f>
         <v>2023/05/06 - -</v>
       </c>
       <c r="O486" t="str">
@@ -68242,7 +68243,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="487" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>13</v>
       </c>
@@ -68287,7 +68288,7 @@
         <v>0</v>
       </c>
       <c r="N487" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C487, "YYYY/MM/DD") &amp; " - " &amp;E487</f>
         <v>2023/05/06 - -</v>
       </c>
       <c r="O487" t="str">
@@ -68328,7 +68329,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="488" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>13</v>
       </c>
@@ -68373,7 +68374,7 @@
         <v>0</v>
       </c>
       <c r="N488" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C488, "YYYY/MM/DD") &amp; " - " &amp;E488</f>
         <v>2023/05/06 - -</v>
       </c>
       <c r="O488" t="str">
@@ -68414,7 +68415,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="489" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>13</v>
       </c>
@@ -68459,7 +68460,7 @@
         <v>0</v>
       </c>
       <c r="N489" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C489, "YYYY/MM/DD") &amp; " - " &amp;E489</f>
         <v>2023/05/06 - -</v>
       </c>
       <c r="O489" t="str">
@@ -68500,7 +68501,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="490" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>13</v>
       </c>
@@ -68545,7 +68546,7 @@
         <v>1</v>
       </c>
       <c r="N490" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C490, "YYYY/MM/DD") &amp; " - " &amp;E490</f>
         <v>2023/05/13 - Manchester United</v>
       </c>
       <c r="O490" t="str">
@@ -68586,7 +68587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>13</v>
       </c>
@@ -68631,7 +68632,7 @@
         <v>0</v>
       </c>
       <c r="N491" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C491, "YYYY/MM/DD") &amp; " - " &amp;E491</f>
         <v>2023/05/13 - -</v>
       </c>
       <c r="O491" t="str">
@@ -68672,7 +68673,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="492" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>13</v>
       </c>
@@ -68717,7 +68718,7 @@
         <v>0</v>
       </c>
       <c r="N492" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C492, "YYYY/MM/DD") &amp; " - " &amp;E492</f>
         <v>2023/05/13 - Chelsea</v>
       </c>
       <c r="O492" t="str">
@@ -68758,7 +68759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>13</v>
       </c>
@@ -68803,7 +68804,7 @@
         <v>0</v>
       </c>
       <c r="N493" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C493, "YYYY/MM/DD") &amp; " - " &amp;E493</f>
         <v>2023/05/13 - -</v>
       </c>
       <c r="O493" t="str">
@@ -68844,7 +68845,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="494" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>13</v>
       </c>
@@ -68889,7 +68890,7 @@
         <v>0</v>
       </c>
       <c r="N494" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C494, "YYYY/MM/DD") &amp; " - " &amp;E494</f>
         <v>2023/05/13 - -</v>
       </c>
       <c r="O494" t="str">
@@ -68930,7 +68931,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="495" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>13</v>
       </c>
@@ -68975,7 +68976,7 @@
         <v>0</v>
       </c>
       <c r="N495" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C495, "YYYY/MM/DD") &amp; " - " &amp;E495</f>
         <v>2023/05/13 - -</v>
       </c>
       <c r="O495" t="str">
@@ -69016,7 +69017,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="496" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>13</v>
       </c>
@@ -69061,7 +69062,7 @@
         <v>0</v>
       </c>
       <c r="N496" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C496, "YYYY/MM/DD") &amp; " - " &amp;E496</f>
         <v>2023/05/13 - -</v>
       </c>
       <c r="O496" t="str">
@@ -69102,7 +69103,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="497" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>13</v>
       </c>
@@ -69147,7 +69148,7 @@
         <v>0</v>
       </c>
       <c r="N497" t="str">
-        <f t="shared" si="8"/>
+        <f>TEXT(C497, "YYYY/MM/DD") &amp; " - " &amp;E497</f>
         <v>2023/05/13 - -</v>
       </c>
       <c r="O497" t="str">
@@ -69189,7 +69190,43 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O497" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O497" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Mark"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Arsenal"/>
+        <filter val="Blackburn Rovers"/>
+        <filter val="Brentford"/>
+        <filter val="Brighton and Hove Albion"/>
+        <filter val="Burnley"/>
+        <filter val="Chelsea"/>
+        <filter val="Fulham"/>
+        <filter val="Huddersfield Town"/>
+        <filter val="Liverpool"/>
+        <filter val="Manchester City"/>
+        <filter val="Manchester United"/>
+        <filter val="Millwall"/>
+        <filter val="Newcastle United"/>
+        <filter val="Norwich City"/>
+        <filter val="Preston North End"/>
+        <filter val="Sheffield United"/>
+        <filter val="Sheffield Wednesday"/>
+        <filter val="Swansea City"/>
+        <filter val="Tottenham Hotspur"/>
+        <filter val="Watford"/>
+        <filter val="West Bromwich Albion"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="22/23"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>